--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H2">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I2">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J2">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N2">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O2">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P2">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q2">
-        <v>2.947407989766157</v>
+        <v>4.752467381283666</v>
       </c>
       <c r="R2">
-        <v>2.947407989766157</v>
+        <v>28.514804287702</v>
       </c>
       <c r="S2">
-        <v>0.129232121885266</v>
+        <v>0.07678911466041737</v>
       </c>
       <c r="T2">
-        <v>0.129232121885266</v>
+        <v>0.0662366128895135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H3">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I3">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J3">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N3">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O3">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P3">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q3">
-        <v>2.120595144516167</v>
+        <v>3.634394843156111</v>
       </c>
       <c r="R3">
-        <v>2.120595144516167</v>
+        <v>32.709553588405</v>
       </c>
       <c r="S3">
-        <v>0.09297966590881067</v>
+        <v>0.05872359343936469</v>
       </c>
       <c r="T3">
-        <v>0.09297966590881067</v>
+        <v>0.07598053337361983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H4">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I4">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J4">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N4">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O4">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P4">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q4">
-        <v>0.8700701415487646</v>
+        <v>1.403178836539222</v>
       </c>
       <c r="R4">
-        <v>0.8700701415487646</v>
+        <v>12.628609528853</v>
       </c>
       <c r="S4">
-        <v>0.03814911643443075</v>
+        <v>0.02267219360461509</v>
       </c>
       <c r="T4">
-        <v>0.03814911643443075</v>
+        <v>0.02933480841235222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H5">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I5">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J5">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N5">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O5">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P5">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q5">
-        <v>0.6376651391303225</v>
+        <v>1.018949128878333</v>
       </c>
       <c r="R5">
-        <v>0.6376651391303225</v>
+        <v>9.170542159905001</v>
       </c>
       <c r="S5">
-        <v>0.02795908108690883</v>
+        <v>0.01646391131451313</v>
       </c>
       <c r="T5">
-        <v>0.02795908108690883</v>
+        <v>0.02130211538202856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H6">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I6">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J6">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N6">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O6">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P6">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q6">
-        <v>2.251535416991485</v>
+        <v>3.679444387505</v>
       </c>
       <c r="R6">
-        <v>2.251535416991485</v>
+        <v>33.114999487545</v>
       </c>
       <c r="S6">
-        <v>0.09872087625735244</v>
+        <v>0.05945149209681366</v>
       </c>
       <c r="T6">
-        <v>0.09872087625735244</v>
+        <v>0.07692233759566597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H7">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I7">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J7">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N7">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O7">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P7">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q7">
-        <v>3.904959880618472</v>
+        <v>6.627484401081333</v>
       </c>
       <c r="R7">
-        <v>3.904959880618472</v>
+        <v>39.764906406488</v>
       </c>
       <c r="S7">
-        <v>0.1712169652119312</v>
+        <v>0.1070851452003655</v>
       </c>
       <c r="T7">
-        <v>0.1712169652119312</v>
+        <v>0.0923693070329169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H8">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I8">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J8">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N8">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O8">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P8">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q8">
-        <v>2.332245690580481</v>
+        <v>6.758215929512001</v>
       </c>
       <c r="R8">
-        <v>2.332245690580481</v>
+        <v>40.549295577072</v>
       </c>
       <c r="S8">
-        <v>0.1022597008619074</v>
+        <v>0.109197470761174</v>
       </c>
       <c r="T8">
-        <v>0.1022597008619074</v>
+        <v>0.09419135291906408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H9">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I9">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J9">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N9">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O9">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P9">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q9">
-        <v>1.677999416584371</v>
+        <v>5.168268007453334</v>
       </c>
       <c r="R9">
-        <v>1.677999416584371</v>
+        <v>46.51441206708</v>
       </c>
       <c r="S9">
-        <v>0.07357360293531716</v>
+        <v>0.08350751152612963</v>
       </c>
       <c r="T9">
-        <v>0.07357360293531716</v>
+        <v>0.1080476328992117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H10">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I10">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J10">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N10">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O10">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P10">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q10">
-        <v>0.6884752111603154</v>
+        <v>1.995381515378667</v>
       </c>
       <c r="R10">
-        <v>0.6884752111603154</v>
+        <v>17.958433638408</v>
       </c>
       <c r="S10">
-        <v>0.03018690073195911</v>
+        <v>0.03224084831789068</v>
       </c>
       <c r="T10">
-        <v>0.03018690073195911</v>
+        <v>0.04171537721275066</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H11">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I11">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J11">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N11">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O11">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P11">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q11">
-        <v>0.5045761489192711</v>
+        <v>1.44899011012</v>
       </c>
       <c r="R11">
-        <v>0.5045761489192711</v>
+        <v>13.04091099108</v>
       </c>
       <c r="S11">
-        <v>0.02212365800864468</v>
+        <v>0.02341240008211519</v>
       </c>
       <c r="T11">
-        <v>0.02212365800864468</v>
+        <v>0.03029253731947603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H12">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I12">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J12">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N12">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O12">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P12">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q12">
-        <v>1.781610754839656</v>
+        <v>5.232330424680001</v>
       </c>
       <c r="R12">
-        <v>1.781610754839656</v>
+        <v>47.09097382212001</v>
       </c>
       <c r="S12">
-        <v>0.07811654817418277</v>
+        <v>0.08454261516960025</v>
       </c>
       <c r="T12">
-        <v>0.07811654817418277</v>
+        <v>0.1093869195865818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5855440000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.756632</v>
+      </c>
+      <c r="I13">
+        <v>0.4851805936269489</v>
+      </c>
+      <c r="J13">
+        <v>0.5149870038950204</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.095412</v>
+      </c>
+      <c r="N13">
+        <v>32.190824</v>
+      </c>
+      <c r="O13">
+        <v>0.3138619923597475</v>
+      </c>
+      <c r="P13">
+        <v>0.2550611626399649</v>
+      </c>
+      <c r="Q13">
+        <v>9.424571924128001</v>
+      </c>
+      <c r="R13">
+        <v>56.547431544768</v>
+      </c>
+      <c r="S13">
+        <v>0.1522797477700392</v>
+      </c>
+      <c r="T13">
+        <v>0.131353183957936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2095515</v>
+      </c>
+      <c r="H14">
+        <v>0.419103</v>
+      </c>
+      <c r="I14">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J14">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.541773</v>
+      </c>
+      <c r="N14">
+        <v>23.083546</v>
+      </c>
+      <c r="O14">
+        <v>0.2250656192673999</v>
+      </c>
+      <c r="P14">
+        <v>0.1829004464319742</v>
+      </c>
+      <c r="Q14">
+        <v>2.4185958448095</v>
+      </c>
+      <c r="R14">
+        <v>9.674383379238</v>
+      </c>
+      <c r="S14">
+        <v>0.03907903384580858</v>
+      </c>
+      <c r="T14">
+        <v>0.02247248062339665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2095515</v>
+      </c>
+      <c r="H15">
+        <v>0.419103</v>
+      </c>
+      <c r="I15">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J15">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.826438333333334</v>
+      </c>
+      <c r="N15">
+        <v>26.479315</v>
+      </c>
+      <c r="O15">
+        <v>0.1721163472386074</v>
+      </c>
+      <c r="P15">
+        <v>0.20980652343071</v>
+      </c>
+      <c r="Q15">
+        <v>1.8495933924075</v>
+      </c>
+      <c r="R15">
+        <v>11.097560354445</v>
+      </c>
+      <c r="S15">
+        <v>0.02988524227311313</v>
+      </c>
+      <c r="T15">
+        <v>0.02577835715787844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2095515</v>
+      </c>
+      <c r="H16">
+        <v>0.419103</v>
+      </c>
+      <c r="I16">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J16">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.407739666666667</v>
+      </c>
+      <c r="N16">
+        <v>10.223219</v>
+      </c>
+      <c r="O16">
+        <v>0.06645123226565072</v>
+      </c>
+      <c r="P16">
+        <v>0.0810027765695895</v>
+      </c>
+      <c r="Q16">
+        <v>0.7140969587595</v>
+      </c>
+      <c r="R16">
+        <v>4.284581752557</v>
+      </c>
+      <c r="S16">
+        <v>0.01153819034314495</v>
+      </c>
+      <c r="T16">
+        <v>0.009952590944486629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.204865317855414</v>
-      </c>
-      <c r="H13">
-        <v>0.204865317855414</v>
-      </c>
-      <c r="I13">
-        <v>0.4417421732153001</v>
-      </c>
-      <c r="J13">
-        <v>0.4417421732153001</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.082807119161</v>
-      </c>
-      <c r="N13">
-        <v>15.082807119161</v>
-      </c>
-      <c r="O13">
-        <v>0.3066987277152201</v>
-      </c>
-      <c r="P13">
-        <v>0.3066987277152201</v>
-      </c>
-      <c r="Q13">
-        <v>3.08994407461882</v>
-      </c>
-      <c r="R13">
-        <v>3.08994407461882</v>
-      </c>
-      <c r="S13">
-        <v>0.1354817625032889</v>
-      </c>
-      <c r="T13">
-        <v>0.1354817625032889</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2095515</v>
+      </c>
+      <c r="H17">
+        <v>0.419103</v>
+      </c>
+      <c r="I17">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J17">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.474605</v>
+      </c>
+      <c r="N17">
+        <v>7.423815</v>
+      </c>
+      <c r="O17">
+        <v>0.0482550217169584</v>
+      </c>
+      <c r="P17">
+        <v>0.05882194519543864</v>
+      </c>
+      <c r="Q17">
+        <v>0.5185571896575</v>
+      </c>
+      <c r="R17">
+        <v>3.111343137945</v>
+      </c>
+      <c r="S17">
+        <v>0.008378710320330088</v>
+      </c>
+      <c r="T17">
+        <v>0.007227292493934053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2095515</v>
+      </c>
+      <c r="H18">
+        <v>0.419103</v>
+      </c>
+      <c r="I18">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J18">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.935845</v>
+      </c>
+      <c r="N18">
+        <v>26.807535</v>
+      </c>
+      <c r="O18">
+        <v>0.174249787151636</v>
+      </c>
+      <c r="P18">
+        <v>0.2124071457323227</v>
+      </c>
+      <c r="Q18">
+        <v>1.8725197235175</v>
+      </c>
+      <c r="R18">
+        <v>11.235118341105</v>
+      </c>
+      <c r="S18">
+        <v>0.03025567988522209</v>
+      </c>
+      <c r="T18">
+        <v>0.02609788855007492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2095515</v>
+      </c>
+      <c r="H19">
+        <v>0.419103</v>
+      </c>
+      <c r="I19">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J19">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.095412</v>
+      </c>
+      <c r="N19">
+        <v>32.190824</v>
+      </c>
+      <c r="O19">
+        <v>0.3138619923597475</v>
+      </c>
+      <c r="P19">
+        <v>0.2550611626399649</v>
+      </c>
+      <c r="Q19">
+        <v>3.372817727718</v>
+      </c>
+      <c r="R19">
+        <v>13.491270910872</v>
+      </c>
+      <c r="S19">
+        <v>0.05449709938934284</v>
+      </c>
+      <c r="T19">
+        <v>0.03133867164911196</v>
       </c>
     </row>
   </sheetData>
